--- a/public/template/Post_ID_Report_Format.xlsx
+++ b/public/template/Post_ID_Report_Format.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>POST ID Report</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>${hospital}</t>
   </si>
 </sst>
 </file>
@@ -430,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,7 +438,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,9 +515,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>

--- a/public/template/Post_ID_Report_Format.xlsx
+++ b/public/template/Post_ID_Report_Format.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>POST ID Report</t>
   </si>
@@ -145,16 +145,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,33 +432,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1">
-        <v>2018</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -472,344 +467,47 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
